--- a/supermarkets.xlsx
+++ b/supermarkets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\iacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7C3887-01ED-4FB1-BCDE-A40C1ECDE656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AB653-A4FD-484A-883C-FECD80C414F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market" sheetId="1" r:id="rId1"/>
@@ -694,13 +694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
@@ -1628,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
